--- a/proj1/sample_output/marksheet/1401EE18.xlsx
+++ b/proj1/sample_output/marksheet/1401EE18.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
@@ -661,18 +661,18 @@
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="D12" s="9" t="n"/>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>25.0/145.0</t>
         </is>
       </c>
     </row>
